--- a/sequences_processing/16S/16S_results/bi_phylum_16S_B.xlsx
+++ b/sequences_processing/16S/16S_results/bi_phylum_16S_B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
@@ -23,6 +23,12 @@
     <t xml:space="preserve">SIMPSON</t>
   </si>
   <si>
+    <t xml:space="preserve">chao1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACE</t>
+  </si>
+  <si>
     <t xml:space="preserve">B_2_1</t>
   </si>
   <si>
@@ -78,15 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">B_8_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_9_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_9_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_9_3</t>
   </si>
 </sst>
 </file>
@@ -428,10 +425,16 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>2.35477878616839</v>
@@ -439,10 +442,16 @@
       <c r="C2" t="n">
         <v>0.884306226142411</v>
       </c>
+      <c r="D2" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31.1777777777778</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2.30307765239606</v>
@@ -450,10 +459,16 @@
       <c r="C3" t="n">
         <v>0.873798671798726</v>
       </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
         <v>2.37186244912435</v>
@@ -461,10 +476,16 @@
       <c r="C4" t="n">
         <v>0.888781179727949</v>
       </c>
+      <c r="D4" t="n">
+        <v>29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>2.29190274191998</v>
@@ -472,10 +493,16 @@
       <c r="C5" t="n">
         <v>0.873032723640537</v>
       </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
         <v>2.3168148965963</v>
@@ -483,10 +510,16 @@
       <c r="C6" t="n">
         <v>0.879127742620404</v>
       </c>
+      <c r="D6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>2.37269886396946</v>
@@ -494,10 +527,16 @@
       <c r="C7" t="n">
         <v>0.886489793288191</v>
       </c>
+      <c r="D7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>2.36453682907845</v>
@@ -505,10 +544,16 @@
       <c r="C8" t="n">
         <v>0.885988001233375</v>
       </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>2.28259434532746</v>
@@ -516,10 +561,16 @@
       <c r="C9" t="n">
         <v>0.870105606547383</v>
       </c>
+      <c r="D9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
         <v>2.30104904504469</v>
@@ -527,10 +578,16 @@
       <c r="C10" t="n">
         <v>0.87240248729089</v>
       </c>
+      <c r="D10" t="n">
+        <v>27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>2.28133018185069</v>
@@ -538,10 +595,16 @@
       <c r="C11" t="n">
         <v>0.876707571300554</v>
       </c>
+      <c r="D11" t="n">
+        <v>26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>2.31385730203848</v>
@@ -549,10 +612,16 @@
       <c r="C12" t="n">
         <v>0.873122183350546</v>
       </c>
+      <c r="D12" t="n">
+        <v>29</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
         <v>2.28467332708797</v>
@@ -560,10 +629,16 @@
       <c r="C13" t="n">
         <v>0.870825131663929</v>
       </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.2142857142857</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
         <v>2.34567755438137</v>
@@ -571,10 +646,16 @@
       <c r="C14" t="n">
         <v>0.882577221398307</v>
       </c>
+      <c r="D14" t="n">
+        <v>28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
         <v>2.34346493963169</v>
@@ -582,10 +663,16 @@
       <c r="C15" t="n">
         <v>0.883375477271864</v>
       </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n">
         <v>2.29591600229914</v>
@@ -593,10 +680,16 @@
       <c r="C16" t="n">
         <v>0.874020484806708</v>
       </c>
+      <c r="D16" t="n">
+        <v>31</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30.6086956521739</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n">
         <v>2.35079537491528</v>
@@ -604,10 +697,16 @@
       <c r="C17" t="n">
         <v>0.883812237900543</v>
       </c>
+      <c r="D17" t="n">
+        <v>31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>2.18570214366084</v>
@@ -615,10 +714,16 @@
       <c r="C18" t="n">
         <v>0.858291720125312</v>
       </c>
+      <c r="D18" t="n">
+        <v>22</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n">
         <v>2.24714438715159</v>
@@ -626,10 +731,16 @@
       <c r="C19" t="n">
         <v>0.866798151742531</v>
       </c>
+      <c r="D19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>2.22842884719086</v>
@@ -637,38 +748,11 @@
       <c r="C20" t="n">
         <v>0.864529539997026</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2.35242454508541</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.880762082738509</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.19822581464991</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.860592669025737</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2.27497223128044</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.866867625022976</v>
+      <c r="D20" t="n">
+        <v>27</v>
+      </c>
+      <c r="E20" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
